--- a/data/hotels_by_city/Dallas/Dallas_shard_554.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,276 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r508008984-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>55771</t>
+  </si>
+  <si>
+    <t>244349</t>
+  </si>
+  <si>
+    <t>508008984</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>Rooms are clean! Professional and friendly staff's! Convenience to highway and stores! Nothing bad to say really I recommend staying a night here. Also has a pool you can go swimming and enjoy your friends or family.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r474565362-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>474565362</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Disappointed with my hotel choice</t>
+  </si>
+  <si>
+    <t>I stayed in Motel 6 for 3 nights and I regretted with all my heart . I had to be very economical so that's why I stayed there . I saw a roach walking up on the wall next to my bed , both beds had dirty bedsheets , I asked them to wash them but I don't think that they did . I got so so itchy and I think it was because the sheets weren't clean . The floor was dirty , the bathroom was also dirty . To top it off the day I checked out the latch of the door was stuck and I was locked in the room with my dad for an hour . Next time I won't stay here .MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Duncanville, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>I stayed in Motel 6 for 3 nights and I regretted with all my heart . I had to be very economical so that's why I stayed there . I saw a roach walking up on the wall next to my bed , both beds had dirty bedsheets , I asked them to wash them but I don't think that they did . I got so so itchy and I think it was because the sheets weren't clean . The floor was dirty , the bathroom was also dirty . To top it off the day I checked out the latch of the door was stuck and I was locked in the room with my dad for an hour . Next time I won't stay here .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r447504654-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>447504654</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean room. Great for an overnight stay. Too cold to use the pool but there is one. Close to interstate. Staff was very friendly . No coffee in rooms, you need to go down to the office to get a cup of coffee. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r331618944-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>331618944</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Ok for what it is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room had been used and not cleaned. Dirty towels. Bed messed up. Razor and used soap in the shower. The girl at the front desk was extremely nice. She was pleasant and helpful. Overall the room was quiet and well appointed. If it weren't for the dirty room, I would have given 5 stars. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r209007941-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>209007941</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and clean. Great deal.</t>
+  </si>
+  <si>
+    <t>Don't care about the other bad reviews. I like this place. Like the convenience of the location. Room is always clean. My house is being worked on and I like staying here cause of the price. Sometimes some of the other people look odd yet they are always polite. A couple of time I had a problem with a woman I thought might be a prostitute that kept calling my room. It upset me but when I called the front desk they explained that they were working to stop that problem in the area. It hadn't happened since. I recommend this place and would stay here again. Air conditioner works great. Bed was extremely comfortable. Room was quiet. That's all I needed. Excellent price. I felt safe. Worked for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Don't care about the other bad reviews. I like this place. Like the convenience of the location. Room is always clean. My house is being worked on and I like staying here cause of the price. Sometimes some of the other people look odd yet they are always polite. A couple of time I had a problem with a woman I thought might be a prostitute that kept calling my room. It upset me but when I called the front desk they explained that they were working to stop that problem in the area. It hadn't happened since. I recommend this place and would stay here again. Air conditioner works great. Bed was extremely comfortable. Room was quiet. That's all I needed. Excellent price. I felt safe. Worked for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r207416246-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>207416246</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Not a great location &amp; Pricey</t>
+  </si>
+  <si>
+    <t>The room itself was ok, but the hallway smell like dog etc...which come to find out this motel 6 is pet friendly. I would think even if the hotel is.....it shouldn't smell like one. The location is horrible!! The police patrol the area and it look like there alot of drugs in that area. Once again a spare of a moment thing,  but just need a few hours of sleep before I hit the rode. I did like the fact that u had to have a card to get in and out the building. Felt pretty safe inside..lol</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r174885261-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>174885261</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Meets Expectations</t>
+  </si>
+  <si>
+    <t>Posting this review for fellow travelers. If you're staying at Motel 6, price is obviously the key consideration, yes? So in fairness to the chain, one does not expect luxury here. When traveling on biz we pay our own expenses out of pocket, no corporate reimbursement, so we choose on the basis of safety, cleanliness (both non-negotiable) cost and comfort, with the obvious trade-offs between budget and luxury. Motel 6 is spartan to be sure, but after all it's only a single night's sleep we're considering here.
+SAFETY: This one is located in what is an industrial/ warehouse section of the city. We chose it because of proximity to a business stop nearby the next morning, we didn't want to deal with Dallas morning traffic. The motel is located next to the highway frontage road, it is well lit in a reasonably safe area. We arrived at 12:30am, after a 10 hour drive, and didn't feel insecure about checking in, unloading our car, etc. but this one is near enough to the urban core that you'll need to bring your stuff inside, don't leave anything in the car.
+CLEANLINESS: Passed, no problems. 
+ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other...Posting this review for fellow travelers. If you're staying at Motel 6, price is obviously the key consideration, yes? So in fairness to the chain, one does not expect luxury here. When traveling on biz we pay our own expenses out of pocket, no corporate reimbursement, so we choose on the basis of safety, cleanliness (both non-negotiable) cost and comfort, with the obvious trade-offs between budget and luxury. Motel 6 is spartan to be sure, but after all it's only a single night's sleep we're considering here.SAFETY: This one is located in what is an industrial/ warehouse section of the city. We chose it because of proximity to a business stop nearby the next morning, we didn't want to deal with Dallas morning traffic. The motel is located next to the highway frontage road, it is well lit in a reasonably safe area. We arrived at 12:30am, after a 10 hour drive, and didn't feel insecure about checking in, unloading our car, etc. but this one is near enough to the urban core that you'll need to bring your stuff inside, don't leave anything in the car.CLEANLINESS: Passed, no problems. ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other people. Everything is pretty "value oriented" (inexpensive) and not the softest bed, but hey, what would you expect here? Motel 6 is OK with pets, there were several in evidence the next morning, no problems though. Slept fine on their less expensive mattress, no complaints here.OVERALL: Would stop here again if biz puts us in the area. There are nicer hotels on the north side of Dallas for just a bit more but Dallas am traffic is not for the faint of heart. We do stay in more expensive digs when we can but for getting a quick 8 hours of snooze this is a better bet than the older independent locals and saves $30-$50 over the nicer mid-level hotels that are about 10 miles further south.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Posting this review for fellow travelers. If you're staying at Motel 6, price is obviously the key consideration, yes? So in fairness to the chain, one does not expect luxury here. When traveling on biz we pay our own expenses out of pocket, no corporate reimbursement, so we choose on the basis of safety, cleanliness (both non-negotiable) cost and comfort, with the obvious trade-offs between budget and luxury. Motel 6 is spartan to be sure, but after all it's only a single night's sleep we're considering here.
+SAFETY: This one is located in what is an industrial/ warehouse section of the city. We chose it because of proximity to a business stop nearby the next morning, we didn't want to deal with Dallas morning traffic. The motel is located next to the highway frontage road, it is well lit in a reasonably safe area. We arrived at 12:30am, after a 10 hour drive, and didn't feel insecure about checking in, unloading our car, etc. but this one is near enough to the urban core that you'll need to bring your stuff inside, don't leave anything in the car.
+CLEANLINESS: Passed, no problems. 
+ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other...Posting this review for fellow travelers. If you're staying at Motel 6, price is obviously the key consideration, yes? So in fairness to the chain, one does not expect luxury here. When traveling on biz we pay our own expenses out of pocket, no corporate reimbursement, so we choose on the basis of safety, cleanliness (both non-negotiable) cost and comfort, with the obvious trade-offs between budget and luxury. Motel 6 is spartan to be sure, but after all it's only a single night's sleep we're considering here.SAFETY: This one is located in what is an industrial/ warehouse section of the city. We chose it because of proximity to a business stop nearby the next morning, we didn't want to deal with Dallas morning traffic. The motel is located next to the highway frontage road, it is well lit in a reasonably safe area. We arrived at 12:30am, after a 10 hour drive, and didn't feel insecure about checking in, unloading our car, etc. but this one is near enough to the urban core that you'll need to bring your stuff inside, don't leave anything in the car.CLEANLINESS: Passed, no problems. ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other people. Everything is pretty "value oriented" (inexpensive) and not the softest bed, but hey, what would you expect here? Motel 6 is OK with pets, there were several in evidence the next morning, no problems though. Slept fine on their less expensive mattress, no complaints here.OVERALL: Would stop here again if biz puts us in the area. There are nicer hotels on the north side of Dallas for just a bit more but Dallas am traffic is not for the faint of heart. We do stay in more expensive digs when we can but for getting a quick 8 hours of snooze this is a better bet than the older independent locals and saves $30-$50 over the nicer mid-level hotels that are about 10 miles further south.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r157135248-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>157135248</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Dirty, nasty, pubic hairs, and roaches!!!</t>
+  </si>
+  <si>
+    <t>Stay here only if you're in desperate need.  Seems like the only occupants of the hotel were people living there. Cops had to come because of a physical fight in one of the rooms, the staff was hesitant to move us to different area of the hotel.  The rooms were dirty. We had two rooms and both had roaches and roach poop all over the floors. There was pubic hair all over the bathroom and toilet.  This is one hotel you don't want them to leave the light on for you!  Stay in the cloak of darkness so this terrible mess can not be seen!!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r140944332-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>140944332</t>
+  </si>
+  <si>
+    <t>09/22/2012</t>
+  </si>
+  <si>
+    <t>Do not stay here, this has turned into an extended stay nightmare</t>
+  </si>
+  <si>
+    <t>The pictures show a clean renovated hotel.  It is renovated, but no where near clean.  Stayed for a few days while in dallas.  Couldn't wait to leave.  Most rooms are occupied by extended stay people.  We noticed several rooms had multiple families in them.  Room next to us stayed up all hours of the night.  Calls to management for that and other issues fell on deaf ears.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r85913979-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>85913979</t>
+  </si>
+  <si>
+    <t>11/03/2010</t>
+  </si>
+  <si>
+    <t>Recently Renovated</t>
+  </si>
+  <si>
+    <t>Nice for a stopover on the way home.  Nothing fancy, funky green walls!</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r51125870-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>51125870</t>
+  </si>
+  <si>
+    <t>12/12/2009</t>
+  </si>
+  <si>
+    <t>What Happen?</t>
+  </si>
+  <si>
+    <t>I have stayed at this location numerious times and loved the idea that it was nearby the stores and resturants.  The hotel had large size T.V in the rooms now the are back to old fashion t.v's with buttons missing on them.  Could improve on amenties based on the price they are renting the rooms for and the rep. this hotel has.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r38377196-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>38377196</t>
+  </si>
+  <si>
+    <t>08/21/2009</t>
+  </si>
+  <si>
+    <t>CUSTOMER SERVICE WAS EXCELLENT..</t>
+  </si>
+  <si>
+    <t>Cheryl was wonderful.  Customer service was excellent.   She made you feel at home and she greeted everyone that came in with a smile.  You dont see customer service like that anymore and when you do you just have to tell someone.  You got a keeper.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r5332979-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>5332979</t>
+  </si>
+  <si>
+    <t>06/10/2006</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>this was a very nice hotel...good customer service, rooms were very neat and clean, staff was really nice and the price was great to. This hotel needs to be considered more then just a  one star hotel. I highly recommend anyone to stay at this hotel.  I'm staying again in June.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +915,811 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_554.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>brendasp2017</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Cynthia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r474565362-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>I stayed in Motel 6 for 3 nights and I regretted with all my heart . I had to be very economical so that's why I stayed there . I saw a roach walking up on the wall next to my bed , both beds had dirty bedsheets , I asked them to wash them but I don't think that they did . I got so so itchy and I think it was because the sheets weren't clean . The floor was dirty , the bathroom was also dirty . To top it off the day I checked out the latch of the door was stuck and I was locked in the room with my dad for an hour . Next time I won't stay here .More</t>
   </si>
   <si>
+    <t>Monique J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r447504654-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Stealthy1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r331618944-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>TravelinPawPaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r209007941-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Don't care about the other bad reviews. I like this place. Like the convenience of the location. Room is always clean. My house is being worked on and I like staying here cause of the price. Sometimes some of the other people look odd yet they are always polite. A couple of time I had a problem with a woman I thought might be a prostitute that kept calling my room. It upset me but when I called the front desk they explained that they were working to stop that problem in the area. It hadn't happened since. I recommend this place and would stay here again. Air conditioner works great. Bed was extremely comfortable. Room was quiet. That's all I needed. Excellent price. I felt safe. Worked for me.More</t>
   </si>
   <si>
+    <t>KimmieS32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r207416246-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -283,6 +301,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>Road_Warrior_LV</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r174885261-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
@@ -315,6 +336,9 @@
 ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other...Posting this review for fellow travelers. If you're staying at Motel 6, price is obviously the key consideration, yes? So in fairness to the chain, one does not expect luxury here. When traveling on biz we pay our own expenses out of pocket, no corporate reimbursement, so we choose on the basis of safety, cleanliness (both non-negotiable) cost and comfort, with the obvious trade-offs between budget and luxury. Motel 6 is spartan to be sure, but after all it's only a single night's sleep we're considering here.SAFETY: This one is located in what is an industrial/ warehouse section of the city. We chose it because of proximity to a business stop nearby the next morning, we didn't want to deal with Dallas morning traffic. The motel is located next to the highway frontage road, it is well lit in a reasonably safe area. We arrived at 12:30am, after a 10 hour drive, and didn't feel insecure about checking in, unloading our car, etc. but this one is near enough to the urban core that you'll need to bring your stuff inside, don't leave anything in the car.CLEANLINESS: Passed, no problems. ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other people. Everything is pretty "value oriented" (inexpensive) and not the softest bed, but hey, what would you expect here? Motel 6 is OK with pets, there were several in evidence the next morning, no problems though. Slept fine on their less expensive mattress, no complaints here.OVERALL: Would stop here again if biz puts us in the area. There are nicer hotels on the north side of Dallas for just a bit more but Dallas am traffic is not for the faint of heart. We do stay in more expensive digs when we can but for getting a quick 8 hours of snooze this is a better bet than the older independent locals and saves $30-$50 over the nicer mid-level hotels that are about 10 miles further south.More</t>
   </si>
   <si>
+    <t>GRBGRB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r157135248-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>JeremiahHill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r140944332-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>The pictures show a clean renovated hotel.  It is renovated, but no where near clean.  Stayed for a few days while in dallas.  Couldn't wait to leave.  Most rooms are occupied by extended stay people.  We noticed several rooms had multiple families in them.  Room next to us stayed up all hours of the night.  Calls to management for that and other issues fell on deaf ears.</t>
   </si>
   <si>
+    <t>purplehazemini</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r85913979-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>alexis94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r51125870-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>naynay32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r38377196-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -400,6 +436,9 @@
   </si>
   <si>
     <t>August 2009</t>
+  </si>
+  <si>
+    <t>Crystal K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r5332979-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
@@ -919,43 +958,47 @@
       <c r="A2" t="n">
         <v>15160</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -969,50 +1012,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>15160</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>15491</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1024,56 +1071,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>15160</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>37525</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1087,50 +1138,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>15160</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1144,50 +1199,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>15160</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>79029</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1211,50 +1270,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>15160</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>80950</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1268,50 +1331,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>15160</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1335,50 +1402,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>15160</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1402,41 +1473,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>15160</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -1465,50 +1540,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>15160</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169257</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -1532,50 +1611,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>15160</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1589,50 +1672,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>15160</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169259</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1656,41 +1743,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>15160</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7772</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -1717,7 +1808,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_554.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_554.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>brendasp2017</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r557657375-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>55771</t>
+  </si>
+  <si>
+    <t>244349</t>
+  </si>
+  <si>
+    <t>557657375</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Not coming back</t>
+  </si>
+  <si>
+    <t>Stayed here because of the rate. Got to my room and discovered that there was no fridge or microwave. Then the internet has to be paid for it is not free. The TV is not the best but it works. Room looks to be recently remodeled but will probably not come back here. Hotel staff was very polite. Could not reach the front desk to ask if they had a code for free internet. Instead of staying for 2 nights I will be checking out in the morning and going to a different hotel that has free WiFi and a fridge and microwave in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Dallas - Duncanville, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here because of the rate. Got to my room and discovered that there was no fridge or microwave. Then the internet has to be paid for it is not free. The TV is not the best but it works. Room looks to be recently remodeled but will probably not come back here. Hotel staff was very polite. Could not reach the front desk to ask if they had a code for free internet. Instead of staying for 2 nights I will be checking out in the morning and going to a different hotel that has free WiFi and a fridge and microwave in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r521219403-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>521219403</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Week stay while waiting for apt to be ready</t>
+  </si>
+  <si>
+    <t>The room and location was ok. Close to convenience store, walking distance to Kroger grocery store and right off I-20. 
+The lady that checked me in was very rude. I got to the property at 2:40 and she told me check in wasn't until 3pm. Every other property I've gone to has always allowed me to check in early. It was only 20 minutes early. So I sat there and waited while she went back on her break. 
+Then she said couldn't find my reservation. I told her both my name and my boyfriend name and she said had neither one. Then as I was checking my online confirmation. It should have been in my boyfriend name. She said it was in MY name on her system. Only 5 seconds after she said she seen neither one of our names. What really pissed me off is she checked in a walk-in guest before me. I was appalled. It wasn't even 3PM yet. It was 2:45. Had I not already reserved the room with my credit card from a 3rd party website, I would have gone somewhere else.
+Online it states free WiFi, smoking preference, and all suites have microwave and fridge. I also requested in both in additional comments, just in case. I get to the room, neither were provided, Wi-Fi was 2.99 or 3.99 per day and it's a smoke-free property. Plus phone didn't work. Apparently ... I'm only...The room and location was ok. Close to convenience store, walking distance to Kroger grocery store and right off I-20. The lady that checked me in was very rude. I got to the property at 2:40 and she told me check in wasn't until 3pm. Every other property I've gone to has always allowed me to check in early. It was only 20 minutes early. So I sat there and waited while she went back on her break. Then she said couldn't find my reservation. I told her both my name and my boyfriend name and she said had neither one. Then as I was checking my online confirmation. It should have been in my boyfriend name. She said it was in MY name on her system. Only 5 seconds after she said she seen neither one of our names. What really pissed me off is she checked in a walk-in guest before me. I was appalled. It wasn't even 3PM yet. It was 2:45. Had I not already reserved the room with my credit card from a 3rd party website, I would have gone somewhere else.Online it states free WiFi, smoking preference, and all suites have microwave and fridge. I also requested in both in additional comments, just in case. I get to the room, neither were provided, Wi-Fi was 2.99 or 3.99 per day and it's a smoke-free property. Plus phone didn't work. Apparently ... I'm only guessing since she seems like she would do that for the hell of it ... Maybe she gave the lady checked the walk-in guest the room with the microwave/fridge. Because there weren't any rooms left with them in there. Ughhhh.I asked for my money back since I had free cancellation until 6PM, but the next front desk clerk explained it would take 5-7 days to return money on my card. So it looks like we are stuck.All of the other staff was great. Except for the lady who checked me in. She didn't even give me a receipt for payment. I paid $300 on a card and the remaining $38.93 in cash. Then I notice after midnight when we get back and are about to shower. There was only provided 1 face and bath towel, no wash cloths.  There were a few roaches in the room on the wall and counter. Here's a pic for proof. The green bedding was stained and had a stint to it. I guess you get what you pay for. Only a few more days here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The room and location was ok. Close to convenience store, walking distance to Kroger grocery store and right off I-20. 
+The lady that checked me in was very rude. I got to the property at 2:40 and she told me check in wasn't until 3pm. Every other property I've gone to has always allowed me to check in early. It was only 20 minutes early. So I sat there and waited while she went back on her break. 
+Then she said couldn't find my reservation. I told her both my name and my boyfriend name and she said had neither one. Then as I was checking my online confirmation. It should have been in my boyfriend name. She said it was in MY name on her system. Only 5 seconds after she said she seen neither one of our names. What really pissed me off is she checked in a walk-in guest before me. I was appalled. It wasn't even 3PM yet. It was 2:45. Had I not already reserved the room with my credit card from a 3rd party website, I would have gone somewhere else.
+Online it states free WiFi, smoking preference, and all suites have microwave and fridge. I also requested in both in additional comments, just in case. I get to the room, neither were provided, Wi-Fi was 2.99 or 3.99 per day and it's a smoke-free property. Plus phone didn't work. Apparently ... I'm only...The room and location was ok. Close to convenience store, walking distance to Kroger grocery store and right off I-20. The lady that checked me in was very rude. I got to the property at 2:40 and she told me check in wasn't until 3pm. Every other property I've gone to has always allowed me to check in early. It was only 20 minutes early. So I sat there and waited while she went back on her break. Then she said couldn't find my reservation. I told her both my name and my boyfriend name and she said had neither one. Then as I was checking my online confirmation. It should have been in my boyfriend name. She said it was in MY name on her system. Only 5 seconds after she said she seen neither one of our names. What really pissed me off is she checked in a walk-in guest before me. I was appalled. It wasn't even 3PM yet. It was 2:45. Had I not already reserved the room with my credit card from a 3rd party website, I would have gone somewhere else.Online it states free WiFi, smoking preference, and all suites have microwave and fridge. I also requested in both in additional comments, just in case. I get to the room, neither were provided, Wi-Fi was 2.99 or 3.99 per day and it's a smoke-free property. Plus phone didn't work. Apparently ... I'm only guessing since she seems like she would do that for the hell of it ... Maybe she gave the lady checked the walk-in guest the room with the microwave/fridge. Because there weren't any rooms left with them in there. Ughhhh.I asked for my money back since I had free cancellation until 6PM, but the next front desk clerk explained it would take 5-7 days to return money on my card. So it looks like we are stuck.All of the other staff was great. Except for the lady who checked me in. She didn't even give me a receipt for payment. I paid $300 on a card and the remaining $38.93 in cash. Then I notice after midnight when we get back and are about to shower. There was only provided 1 face and bath towel, no wash cloths.  There were a few roaches in the room on the wall and counter. Here's a pic for proof. The green bedding was stained and had a stint to it. I guess you get what you pay for. Only a few more days here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r508008984-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
-    <t>55771</t>
-  </si>
-  <si>
-    <t>244349</t>
-  </si>
-  <si>
     <t>508008984</t>
   </si>
   <si>
@@ -177,12 +234,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Cynthia L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r474565362-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -213,9 +264,6 @@
     <t>I stayed in Motel 6 for 3 nights and I regretted with all my heart . I had to be very economical so that's why I stayed there . I saw a roach walking up on the wall next to my bed , both beds had dirty bedsheets , I asked them to wash them but I don't think that they did . I got so so itchy and I think it was because the sheets weren't clean . The floor was dirty , the bathroom was also dirty . To top it off the day I checked out the latch of the door was stuck and I was locked in the room with my dad for an hour . Next time I won't stay here .More</t>
   </si>
   <si>
-    <t>Monique J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r447504654-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -234,7 +282,40 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Stealthy1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r432270056-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>432270056</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Budget Minded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inexpensive and relatively clean.  No frills Motel 6.  You get what you pay for but this was cleaner than most.  A little smoke smell and a below average bed with cheap linens.  They gave me a handicapped accessible room that was extra roomy.  I would stay again for the price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r360480367-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>360480367</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Grossest House tour ever</t>
+  </si>
+  <si>
+    <t>So we were on a field Trip with my friends and we were getting a house tour because we clean houses And so we got a call that we had to clean a hoarders house when we got there It was 5 ft Of trash everywhere rats Roach's Bugs mice It stunk The bathroom was covered in Poop and pee it was gross we spent a month cleaning that place up And I got really sick from being in there Worst House ever</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r331618944-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
@@ -255,9 +336,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>TravelinPawPaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r209007941-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -282,9 +360,6 @@
     <t>Don't care about the other bad reviews. I like this place. Like the convenience of the location. Room is always clean. My house is being worked on and I like staying here cause of the price. Sometimes some of the other people look odd yet they are always polite. A couple of time I had a problem with a woman I thought might be a prostitute that kept calling my room. It upset me but when I called the front desk they explained that they were working to stop that problem in the area. It hadn't happened since. I recommend this place and would stay here again. Air conditioner works great. Bed was extremely comfortable. Room was quiet. That's all I needed. Excellent price. I felt safe. Worked for me.More</t>
   </si>
   <si>
-    <t>KimmieS32</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r207416246-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -303,7 +378,34 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Road_Warrior_LV</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r195277255-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>195277255</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>I'm here right now. Not bad not great.  In the middle of the hood. Drug addicts are outside talking about pookies marital issues. Don't leave anything in your car and don't make eye contact. But the bed is comfy and the sheets are clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r183326681-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>183326681</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's just as the pic I've started at some rooms&amp;this one is half way decent. The rates are suitable. The staff was descent had a problem with staff but it was soon resolved. We had a smoking room which are outside&amp;all none-smokers inside. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r174885261-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
@@ -327,18 +429,12 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Posting this review for fellow travelers. If you're staying at Motel 6, price is obviously the key consideration, yes? So in fairness to the chain, one does not expect luxury here. When traveling on biz we pay our own expenses out of pocket, no corporate reimbursement, so we choose on the basis of safety, cleanliness (both non-negotiable) cost and comfort, with the obvious trade-offs between budget and luxury. Motel 6 is spartan to be sure, but after all it's only a single night's sleep we're considering here.
 SAFETY: This one is located in what is an industrial/ warehouse section of the city. We chose it because of proximity to a business stop nearby the next morning, we didn't want to deal with Dallas morning traffic. The motel is located next to the highway frontage road, it is well lit in a reasonably safe area. We arrived at 12:30am, after a 10 hour drive, and didn't feel insecure about checking in, unloading our car, etc. but this one is near enough to the urban core that you'll need to bring your stuff inside, don't leave anything in the car.
 CLEANLINESS: Passed, no problems. 
 ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other...Posting this review for fellow travelers. If you're staying at Motel 6, price is obviously the key consideration, yes? So in fairness to the chain, one does not expect luxury here. When traveling on biz we pay our own expenses out of pocket, no corporate reimbursement, so we choose on the basis of safety, cleanliness (both non-negotiable) cost and comfort, with the obvious trade-offs between budget and luxury. Motel 6 is spartan to be sure, but after all it's only a single night's sleep we're considering here.SAFETY: This one is located in what is an industrial/ warehouse section of the city. We chose it because of proximity to a business stop nearby the next morning, we didn't want to deal with Dallas morning traffic. The motel is located next to the highway frontage road, it is well lit in a reasonably safe area. We arrived at 12:30am, after a 10 hour drive, and didn't feel insecure about checking in, unloading our car, etc. but this one is near enough to the urban core that you'll need to bring your stuff inside, don't leave anything in the car.CLEANLINESS: Passed, no problems. ACCOMMODATIONS: Furniture in good repair, everything clean, looked fine. Cheap furniture, yes, linoleum floors (easy to clean, no worries about pests, body fluids left in carpets, cleans easily with pets, etc). Old picture tube type TV. We don't watch TV anyway but this might be important to other people. Everything is pretty "value oriented" (inexpensive) and not the softest bed, but hey, what would you expect here? Motel 6 is OK with pets, there were several in evidence the next morning, no problems though. Slept fine on their less expensive mattress, no complaints here.OVERALL: Would stop here again if biz puts us in the area. There are nicer hotels on the north side of Dallas for just a bit more but Dallas am traffic is not for the faint of heart. We do stay in more expensive digs when we can but for getting a quick 8 hours of snooze this is a better bet than the older independent locals and saves $30-$50 over the nicer mid-level hotels that are about 10 miles further south.More</t>
   </si>
   <si>
-    <t>GRBGRB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r157135248-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -357,9 +453,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>JeremiahHill</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r140944332-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -375,7 +468,54 @@
     <t>The pictures show a clean renovated hotel.  It is renovated, but no where near clean.  Stayed for a few days while in dallas.  Couldn't wait to leave.  Most rooms are occupied by extended stay people.  We noticed several rooms had multiple families in them.  Room next to us stayed up all hours of the night.  Calls to management for that and other issues fell on deaf ears.</t>
   </si>
   <si>
-    <t>purplehazemini</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r119361890-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>119361890</t>
+  </si>
+  <si>
+    <t>10/16/2011</t>
+  </si>
+  <si>
+    <t>My favorite of all Motel 6s</t>
+  </si>
+  <si>
+    <t>I travel quite often.  I've been to at least 50 Motel 6s in the western United States, and this one that I stayed at recently really took the cake. Admittedly, sometimes I will spring for the more expensive hotel/motels versus Motel 6 if I know that the Motel or the area is particularly ghetto, so by no means am I a Motel 6 groupie, if such a thing exists.
+ I'll first tell you what was out of the ordinary from most Motel 6s: reception was not either a high school dropout or someone who was barely fluent with the English language; the room was not dingy, with a smell that often pervades many Motel 6s; and finally, the place was not loud, with drunk or lower classed people making a hullabaloo, even though it was nearly fully booked and it was a Friday night. Quite the opposite!
+The room was a king, and probably a good 25% bigger than most other Motel 6s.  The bed was a California King, surprisingly, and there was plenty of room.  Most of the time they squeeze the beds next to the wall so they can have more space for a table area, but this one was not lacking on space at all.
+The bathroom was clean and nice.  The reception actually called the room to make sure things were okay--a rarity for Motel 6.  
+In all, I'd definitely stay there again if I were...I travel quite often.  I've been to at least 50 Motel 6s in the western United States, and this one that I stayed at recently really took the cake. Admittedly, sometimes I will spring for the more expensive hotel/motels versus Motel 6 if I know that the Motel or the area is particularly ghetto, so by no means am I a Motel 6 groupie, if such a thing exists. I'll first tell you what was out of the ordinary from most Motel 6s: reception was not either a high school dropout or someone who was barely fluent with the English language; the room was not dingy, with a smell that often pervades many Motel 6s; and finally, the place was not loud, with drunk or lower classed people making a hullabaloo, even though it was nearly fully booked and it was a Friday night. Quite the opposite!The room was a king, and probably a good 25% bigger than most other Motel 6s.  The bed was a California King, surprisingly, and there was plenty of room.  Most of the time they squeeze the beds next to the wall so they can have more space for a table area, but this one was not lacking on space at all.The bathroom was clean and nice.  The reception actually called the room to make sure things were okay--a rarity for Motel 6.  In all, I'd definitely stay there again if I were stuck in Duncanville.  It wasn't particularly loud nearby, but I wouldn't call the area the greatest.  It's next to a gas station.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I travel quite often.  I've been to at least 50 Motel 6s in the western United States, and this one that I stayed at recently really took the cake. Admittedly, sometimes I will spring for the more expensive hotel/motels versus Motel 6 if I know that the Motel or the area is particularly ghetto, so by no means am I a Motel 6 groupie, if such a thing exists.
+ I'll first tell you what was out of the ordinary from most Motel 6s: reception was not either a high school dropout or someone who was barely fluent with the English language; the room was not dingy, with a smell that often pervades many Motel 6s; and finally, the place was not loud, with drunk or lower classed people making a hullabaloo, even though it was nearly fully booked and it was a Friday night. Quite the opposite!
+The room was a king, and probably a good 25% bigger than most other Motel 6s.  The bed was a California King, surprisingly, and there was plenty of room.  Most of the time they squeeze the beds next to the wall so they can have more space for a table area, but this one was not lacking on space at all.
+The bathroom was clean and nice.  The reception actually called the room to make sure things were okay--a rarity for Motel 6.  
+In all, I'd definitely stay there again if I were...I travel quite often.  I've been to at least 50 Motel 6s in the western United States, and this one that I stayed at recently really took the cake. Admittedly, sometimes I will spring for the more expensive hotel/motels versus Motel 6 if I know that the Motel or the area is particularly ghetto, so by no means am I a Motel 6 groupie, if such a thing exists. I'll first tell you what was out of the ordinary from most Motel 6s: reception was not either a high school dropout or someone who was barely fluent with the English language; the room was not dingy, with a smell that often pervades many Motel 6s; and finally, the place was not loud, with drunk or lower classed people making a hullabaloo, even though it was nearly fully booked and it was a Friday night. Quite the opposite!The room was a king, and probably a good 25% bigger than most other Motel 6s.  The bed was a California King, surprisingly, and there was plenty of room.  Most of the time they squeeze the beds next to the wall so they can have more space for a table area, but this one was not lacking on space at all.The bathroom was clean and nice.  The reception actually called the room to make sure things were okay--a rarity for Motel 6.  In all, I'd definitely stay there again if I were stuck in Duncanville.  It wasn't particularly loud nearby, but I wouldn't call the area the greatest.  It's next to a gas station.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r116945326-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>116945326</t>
+  </si>
+  <si>
+    <t>08/19/2011</t>
+  </si>
+  <si>
+    <t>Good Deal For the Price</t>
+  </si>
+  <si>
+    <t>The room was clean. The bed was comfortable. The customer service was friendly. I was pleased with the Wi-Fi connection that I purchased separately.  The pictures on the chain web site are exactly what you find in the room and property.  There were no suprises. I have stayed in Motel 6's in other states so I knew that only the basics would be provided and that  was just right for my 2 night stay and my limited budget.  I was attending a conference at the Potters House and the motel 6 was very convenient to the highway and only about 5 miles from my destination. My only complaint is that I could not always get a parking space near my room entrance, but the extra walk wasn't that far.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>The room was clean. The bed was comfortable. The customer service was friendly. I was pleased with the Wi-Fi connection that I purchased separately.  The pictures on the chain web site are exactly what you find in the room and property.  There were no suprises. I have stayed in Motel 6's in other states so I knew that only the basics would be provided and that  was just right for my 2 night stay and my limited budget.  I was attending a conference at the Potters House and the motel 6 was very convenient to the highway and only about 5 miles from my destination. My only complaint is that I could not always get a parking space near my room entrance, but the extra walk wasn't that far.  I would definitely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r85913979-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
@@ -396,9 +536,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>alexis94</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r51125870-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -417,9 +554,6 @@
     <t>December 2009</t>
   </si>
   <si>
-    <t>naynay32</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r38377196-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -438,7 +572,40 @@
     <t>August 2009</t>
   </si>
   <si>
-    <t>Crystal K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r33401487-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>33401487</t>
+  </si>
+  <si>
+    <t>06/28/2009</t>
+  </si>
+  <si>
+    <t>It's okay for a night or two</t>
+  </si>
+  <si>
+    <t>We stayed the weekend for a football student event in Duncanville.   The motel is clean enough and the a/c was really cold, which was great.  We got extra towels from the maid when we asked, and there is free coffee in the lobby.  The pool looked clean but we didn't use it.  We had a mini fridge and microwave, used both.  So overall it was great for less than $50/night.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r17663238-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>17663238</t>
+  </si>
+  <si>
+    <t>07/08/2008</t>
+  </si>
+  <si>
+    <t>Dirtiest Grossest Room Ever!!!!</t>
+  </si>
+  <si>
+    <t>Of all the motel rooms I've stayed in (a lot!) this was the dirtiest and nastiest. The toilet had not been cleaned in a long time as it had a mildew ring.  Made me wonder... if they're not cleaning the toilet, are they bothering to change the sheets?  The shower had hairs in it and they were also on the vanity. The carpet had not been vacuumed and  by the bed was a stain of what appeared to be blood.  Only one of the beds had a blanket on it.  The blanket on the one bed had crumbs on it and was worn out and dirty.  When I called the office and asked for a blanket for the other bed, she said she didn't have any.  The pillows were completely flat.  There was no alarm clock.  Fortunately, we got there late and left early, so I only had to endure a few sleepless hours in that room.  Came close to going down and sleeping in the car.MoreShow less</t>
+  </si>
+  <si>
+    <t>Of all the motel rooms I've stayed in (a lot!) this was the dirtiest and nastiest. The toilet had not been cleaned in a long time as it had a mildew ring.  Made me wonder... if they're not cleaning the toilet, are they bothering to change the sheets?  The shower had hairs in it and they were also on the vanity. The carpet had not been vacuumed and  by the bed was a stain of what appeared to be blood.  Only one of the beds had a blanket on it.  The blanket on the one bed had crumbs on it and was worn out and dirty.  When I called the office and asked for a blanket for the other bed, she said she didn't have any.  The pillows were completely flat.  There was no alarm clock.  Fortunately, we got there late and left early, so I only had to endure a few sleepless hours in that room.  Came close to going down and sleeping in the car.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d244349-r5332979-Motel_6_Dallas_Duncanville-Duncanville_Texas.html</t>
@@ -958,47 +1125,43 @@
       <c r="A2" t="n">
         <v>15160</v>
       </c>
-      <c r="B2" t="n">
-        <v>169252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1009,57 +1172,57 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>15160</v>
       </c>
-      <c r="B3" t="n">
-        <v>15491</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1070,61 +1233,53 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>15160</v>
       </c>
-      <c r="B4" t="n">
-        <v>37525</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1138,54 +1293,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>15160</v>
       </c>
-      <c r="B5" t="n">
-        <v>169253</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1196,36 +1347,36 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>15160</v>
       </c>
-      <c r="B6" t="n">
-        <v>79029</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>80</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>81</v>
@@ -1246,79 +1397,61 @@
         <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>15160</v>
       </c>
-      <c r="B7" t="n">
-        <v>80950</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1331,208 +1464,180 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>15160</v>
       </c>
-      <c r="B8" t="n">
-        <v>169254</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>15160</v>
       </c>
-      <c r="B9" t="n">
-        <v>169255</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>15160</v>
       </c>
-      <c r="B10" t="n">
-        <v>169256</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1540,202 +1645,182 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>15160</v>
       </c>
-      <c r="B11" t="n">
-        <v>169257</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>15160</v>
       </c>
-      <c r="B12" t="n">
-        <v>169258</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>15160</v>
       </c>
-      <c r="B13" t="n">
-        <v>169259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1743,64 +1828,66 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>15160</v>
       </c>
-      <c r="B14" t="n">
-        <v>7772</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1808,7 +1895,649 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
         <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>15160</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
